--- a/public/upload/file-mau.xlsx
+++ b/public/upload/file-mau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORD-EXCEL-POWERPOINT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1ABA427-EE3F-467E-9B15-D701DCCBD1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64473EBF-944C-4AF7-9FD1-0A5CD4CCB5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{07DB5E2D-E57E-4D0C-A5C9-5296926640A5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Họ</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Giới tính</t>
-  </si>
-  <si>
-    <t>Số điện thoại</t>
   </si>
   <si>
     <t>Lớp</t>
@@ -417,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9AF7CC-B172-44FC-AA93-C15962C41144}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H7" sqref="H7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,7 +431,7 @@
     <col min="8" max="8" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +442,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -456,11 +453,8 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="1"/>
